--- a/ProblemList.xlsx
+++ b/ProblemList.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htiwari\Downloads\1_Project\1_Questions\Dsa_Prep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A8288A-8940-402A-B376-9E53AB343B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Problem Link</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Hashmap,array</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>String, Map / Array</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +394,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{56F2AAF2-B039-49B5-9D55-DABE99B3A13C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4FC7B32B-8934-45AF-B425-B5FFF6A37626}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>